--- a/test/data/sqlite/SampleSQLite001.xlsx
+++ b/test/data/sqlite/SampleSQLite001.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbEE/test/data/sqlite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9AA78D-1818-804E-A7CB-7310E89AA739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E325D42-DA9C-8A4D-9303-8DE753D61E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23200" yWindow="460" windowWidth="19700" windowHeight="18740"/>
+    <workbookView xWindow="18700" yWindow="460" windowWidth="19700" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sql" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Beanized_Parameter">config!$G$5:$G$7</definedName>
     <definedName name="Cursor_Type">config!$C$5:$C$8</definedName>
@@ -25,6 +28,9 @@
     <definedName name="Row_Affected">config!$B$5:$B$7</definedName>
     <definedName name="SQL_Type">config!$A$5:$A$7</definedName>
     <definedName name="Updatable">config!$D$5:$D$7</definedName>
+    <definedName name="繰り返し時演算子">[1]config!$J$5:$J$7</definedName>
+    <definedName name="条件句タイプ">[1]config!$H$5:$H$9</definedName>
+    <definedName name="比較演算子">[1]config!$I$5:$I$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>SQL Definition Form</t>
   </si>
@@ -104,9 +110,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>SQL Definition / Input Parameter</t>
   </si>
   <si>
     <t>No.</t>
@@ -262,14 +265,76 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SQL Definition / Dynamic Conditions Definitions</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ドウテキ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">ジョウケンシキ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Key string</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Tag name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Condition Type</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Target item</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Comparison operator</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒカク </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">エンザンシ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Logical operator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Data Type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SQL Definition / Input Parameter</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -295,8 +360,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +392,20 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -575,11 +664,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -759,6 +900,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -774,6 +948,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="sql"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="H5" t="str">
+            <v>COMPARE</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>EQ</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>AND</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6" t="str">
+            <v>IN</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>GT</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>OR</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7" t="str">
+            <v>NOT IN</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>LT</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8" t="str">
+            <v>BETWEEN</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>GE</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9" t="str">
+            <v>NOT BETWEEN</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>LE</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10" t="str">
+            <v>LIKE</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11" t="str">
+            <v>NOT LIKE</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,14 +1342,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1112,12 +1358,15 @@
     <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19">
+    <row r="1" spans="1:11" ht="19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,11 +1376,12 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1143,8 +1393,9 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1156,8 +1407,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1169,14 +1421,15 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="3"/>
@@ -1184,14 +1437,15 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="3"/>
@@ -1199,23 +1453,25 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1229,14 +1485,15 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -1246,9 +1503,10 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="3"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1264,9 +1522,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="3"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1283,9 +1542,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="3"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1299,9 +1559,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="3"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1315,11 +1576,12 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J14" s="3"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1328,47 +1590,50 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="5"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="5"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="26"/>
       <c r="B19" s="14"/>
       <c r="C19" s="20"/>
@@ -1377,9 +1642,10 @@
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="26"/>
       <c r="B20" s="28"/>
       <c r="C20" s="20"/>
@@ -1388,9 +1654,10 @@
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="26"/>
       <c r="B21" s="28"/>
       <c r="C21" s="20"/>
@@ -1399,9 +1666,10 @@
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="26"/>
       <c r="B22" s="28"/>
       <c r="C22" s="20"/>
@@ -1410,205 +1678,218 @@
       <c r="F22" s="22"/>
       <c r="G22" s="23"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="24" spans="1:10" s="73" customFormat="1">
+      <c r="A24" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+    </row>
+    <row r="25" spans="1:10" s="73" customFormat="1" ht="28" customHeight="1">
+      <c r="A25" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="72"/>
+    </row>
+    <row r="26" spans="1:10" s="73" customFormat="1">
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="72"/>
+    </row>
+    <row r="27" spans="1:10" s="73" customFormat="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="72"/>
+    </row>
+    <row r="28" spans="1:10" s="73" customFormat="1">
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="72"/>
+    </row>
+    <row r="29" spans="1:10" s="73" customFormat="1">
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="72"/>
+    </row>
+    <row r="30" spans="1:10" s="73" customFormat="1">
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="72"/>
+    </row>
+    <row r="31" spans="1:10" s="73" customFormat="1">
+      <c r="A31" s="77"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="72"/>
+    </row>
+    <row r="32" spans="1:10" s="73" customFormat="1">
+      <c r="A32" s="77"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="72"/>
+    </row>
+    <row r="33" spans="1:13" s="73" customFormat="1"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="29" t="s">
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="26"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="26"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-    </row>
-    <row r="37" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A38" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="48"/>
-    </row>
-    <row r="39" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A39" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-    </row>
-    <row r="40" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A40" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
-    </row>
-    <row r="41" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A41" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="38"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -1616,15 +1897,11 @@
       <c r="F41" s="39"/>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51"/>
-    </row>
-    <row r="42" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A42" s="38" t="s">
-        <v>67</v>
-      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="38"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
@@ -1632,15 +1909,11 @@
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
-    </row>
-    <row r="43" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A43" s="38" t="s">
-        <v>68</v>
-      </c>
+      <c r="I42" s="40"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="38"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -1648,12 +1921,10 @@
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
-    </row>
-    <row r="44" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I43" s="40"/>
+      <c r="J43" s="41"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="38"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -1662,69 +1933,61 @@
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
-    </row>
-    <row r="45" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
-    </row>
-    <row r="46" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="51"/>
-    </row>
-    <row r="47" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="51"/>
-    </row>
-    <row r="48" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
-    </row>
-    <row r="49" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A49" s="38"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A48" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="48"/>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A49" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
@@ -1732,13 +1995,16 @@
       <c r="F49" s="39"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="51"/>
-    </row>
-    <row r="50" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A50" s="38"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A50" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
@@ -1746,13 +2012,16 @@
       <c r="F50" s="39"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="51"/>
-    </row>
-    <row r="51" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A51" s="38"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="51"/>
+    </row>
+    <row r="51" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A51" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
@@ -1760,13 +2029,16 @@
       <c r="F51" s="39"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="51"/>
-    </row>
-    <row r="52" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A52" s="38"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="51"/>
+    </row>
+    <row r="52" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A52" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
@@ -1774,13 +2046,16 @@
       <c r="F52" s="39"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-    </row>
-    <row r="53" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A53" s="38"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="51"/>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A53" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
@@ -1788,12 +2063,13 @@
       <c r="F53" s="39"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
-    </row>
-    <row r="54" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="51"/>
+    </row>
+    <row r="54" spans="1:13" ht="13.5" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -1802,12 +2078,13 @@
       <c r="F54" s="39"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="51"/>
-    </row>
-    <row r="55" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I54" s="40"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="51"/>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -1816,12 +2093,13 @@
       <c r="F55" s="39"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="51"/>
-    </row>
-    <row r="56" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I55" s="40"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="51"/>
+    </row>
+    <row r="56" spans="1:13" ht="13.5" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -1830,12 +2108,13 @@
       <c r="F56" s="39"/>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="51"/>
-    </row>
-    <row r="57" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="51"/>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -1844,12 +2123,13 @@
       <c r="F57" s="39"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="51"/>
-    </row>
-    <row r="58" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I57" s="40"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="51"/>
+    </row>
+    <row r="58" spans="1:13" ht="13.5" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -1858,12 +2138,13 @@
       <c r="F58" s="39"/>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="51"/>
-    </row>
-    <row r="59" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I58" s="40"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="51"/>
+    </row>
+    <row r="59" spans="1:13" ht="13.5" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -1872,12 +2153,13 @@
       <c r="F59" s="39"/>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="51"/>
-    </row>
-    <row r="60" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="51"/>
+    </row>
+    <row r="60" spans="1:13" ht="13.5" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -1886,12 +2168,13 @@
       <c r="F60" s="39"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="51"/>
-    </row>
-    <row r="61" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I60" s="40"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="51"/>
+    </row>
+    <row r="61" spans="1:13" ht="13.5" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -1900,12 +2183,13 @@
       <c r="F61" s="39"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="51"/>
-    </row>
-    <row r="62" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I61" s="40"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="51"/>
+    </row>
+    <row r="62" spans="1:13" ht="13.5" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -1914,12 +2198,13 @@
       <c r="F62" s="39"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="51"/>
-    </row>
-    <row r="63" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I62" s="40"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="51"/>
+    </row>
+    <row r="63" spans="1:13" ht="13.5" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -1928,12 +2213,13 @@
       <c r="F63" s="39"/>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="51"/>
-    </row>
-    <row r="64" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I63" s="40"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="51"/>
+    </row>
+    <row r="64" spans="1:13" ht="13.5" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -1942,12 +2228,13 @@
       <c r="F64" s="39"/>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="51"/>
-    </row>
-    <row r="65" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I64" s="40"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="51"/>
+    </row>
+    <row r="65" spans="1:13" ht="13.5" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -1956,12 +2243,13 @@
       <c r="F65" s="39"/>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="51"/>
-    </row>
-    <row r="66" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="51"/>
+    </row>
+    <row r="66" spans="1:13" ht="13.5" customHeight="1">
       <c r="A66" s="38"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -1970,12 +2258,13 @@
       <c r="F66" s="39"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="51"/>
-    </row>
-    <row r="67" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I66" s="40"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="51"/>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" customHeight="1">
       <c r="A67" s="38"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -1984,12 +2273,13 @@
       <c r="F67" s="39"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="51"/>
-    </row>
-    <row r="68" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I67" s="40"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="51"/>
+    </row>
+    <row r="68" spans="1:13" ht="13.5" customHeight="1">
       <c r="A68" s="38"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -1998,12 +2288,13 @@
       <c r="F68" s="39"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="51"/>
-    </row>
-    <row r="69" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="51"/>
+    </row>
+    <row r="69" spans="1:13" ht="13.5" customHeight="1">
       <c r="A69" s="38"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -2012,12 +2303,13 @@
       <c r="F69" s="39"/>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="51"/>
-    </row>
-    <row r="70" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I69" s="40"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="51"/>
+    </row>
+    <row r="70" spans="1:13" ht="13.5" customHeight="1">
       <c r="A70" s="38"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -2026,12 +2318,13 @@
       <c r="F70" s="39"/>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="51"/>
-    </row>
-    <row r="71" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I70" s="40"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="51"/>
+    </row>
+    <row r="71" spans="1:13" ht="13.5" customHeight="1">
       <c r="A71" s="38"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -2040,12 +2333,13 @@
       <c r="F71" s="39"/>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="51"/>
-    </row>
-    <row r="72" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I71" s="40"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="51"/>
+    </row>
+    <row r="72" spans="1:13" ht="13.5" customHeight="1">
       <c r="A72" s="38"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -2054,12 +2348,13 @@
       <c r="F72" s="39"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="51"/>
-    </row>
-    <row r="73" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I72" s="40"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="51"/>
+    </row>
+    <row r="73" spans="1:13" ht="13.5" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -2068,12 +2363,13 @@
       <c r="F73" s="39"/>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="51"/>
-    </row>
-    <row r="74" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I73" s="40"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
+    </row>
+    <row r="74" spans="1:13" ht="13.5" customHeight="1">
       <c r="A74" s="38"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -2082,12 +2378,13 @@
       <c r="F74" s="39"/>
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="51"/>
-    </row>
-    <row r="75" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I74" s="40"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="51"/>
+    </row>
+    <row r="75" spans="1:13" ht="13.5" customHeight="1">
       <c r="A75" s="38"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -2096,12 +2393,13 @@
       <c r="F75" s="39"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="51"/>
-    </row>
-    <row r="76" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I75" s="40"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="51"/>
+    </row>
+    <row r="76" spans="1:13" ht="13.5" customHeight="1">
       <c r="A76" s="38"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -2110,12 +2408,13 @@
       <c r="F76" s="39"/>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="51"/>
-    </row>
-    <row r="77" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I76" s="40"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="51"/>
+    </row>
+    <row r="77" spans="1:13" ht="13.5" customHeight="1">
       <c r="A77" s="38"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -2124,12 +2423,13 @@
       <c r="F77" s="39"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="51"/>
-    </row>
-    <row r="78" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="51"/>
+    </row>
+    <row r="78" spans="1:13" ht="13.5" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -2138,12 +2438,13 @@
       <c r="F78" s="39"/>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="51"/>
-    </row>
-    <row r="79" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I78" s="40"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="51"/>
+    </row>
+    <row r="79" spans="1:13" ht="13.5" customHeight="1">
       <c r="A79" s="38"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -2152,12 +2453,13 @@
       <c r="F79" s="39"/>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="51"/>
-    </row>
-    <row r="80" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I79" s="40"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="51"/>
+    </row>
+    <row r="80" spans="1:13" ht="13.5" customHeight="1">
       <c r="A80" s="38"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -2166,12 +2468,13 @@
       <c r="F80" s="39"/>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="51"/>
-    </row>
-    <row r="81" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I80" s="40"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="51"/>
+    </row>
+    <row r="81" spans="1:13" ht="13.5" customHeight="1">
       <c r="A81" s="38"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -2180,12 +2483,13 @@
       <c r="F81" s="39"/>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="51"/>
-    </row>
-    <row r="82" spans="1:12" ht="13.5" customHeight="1">
+      <c r="I81" s="40"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="51"/>
+    </row>
+    <row r="82" spans="1:13" ht="13.5" customHeight="1">
       <c r="A82" s="38"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -2194,57 +2498,218 @@
       <c r="F82" s="39"/>
       <c r="G82" s="40"/>
       <c r="H82" s="40"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="51"/>
-    </row>
-    <row r="83" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="54"/>
-    </row>
-    <row r="90" spans="1:12" ht="13.5" customHeight="1"/>
-    <row r="91" spans="1:12" ht="13.5" customHeight="1"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="51"/>
+    </row>
+    <row r="83" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="51"/>
+    </row>
+    <row r="84" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A84" s="38"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="51"/>
+    </row>
+    <row r="85" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A85" s="38"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="51"/>
+    </row>
+    <row r="86" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A86" s="38"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="51"/>
+    </row>
+    <row r="87" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A87" s="38"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="51"/>
+    </row>
+    <row r="88" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A88" s="38"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="51"/>
+    </row>
+    <row r="89" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A89" s="38"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="51"/>
+    </row>
+    <row r="90" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A90" s="38"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="51"/>
+    </row>
+    <row r="91" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="51"/>
+    </row>
+    <row r="92" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A92" s="38"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="50"/>
+      <c r="M92" s="51"/>
+    </row>
+    <row r="93" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A93" s="42"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="53"/>
+      <c r="M93" s="54"/>
+    </row>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Row_Affected</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>SQL_Type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C22 C26:C27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C18:C22 C36:C37" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Parameter_Type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Cursor_Type</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Updatable</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Dynamic_SQL</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="C14">
+    <dataValidation type="list" showErrorMessage="1" sqref="C14" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Beanized_Parameter</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F32 JC26:JC32 SY26:SY32 ACU26:ACU32 AMQ26:AMQ32 AWM26:AWM32 BGI26:BGI32 BQE26:BQE32 CAA26:CAA32 CJW26:CJW32 CTS26:CTS32 DDO26:DDO32 DNK26:DNK32 DXG26:DXG32 EHC26:EHC32 EQY26:EQY32 FAU26:FAU32 FKQ26:FKQ32 FUM26:FUM32 GEI26:GEI32 GOE26:GOE32 GYA26:GYA32 HHW26:HHW32 HRS26:HRS32 IBO26:IBO32 ILK26:ILK32 IVG26:IVG32 JFC26:JFC32 JOY26:JOY32 JYU26:JYU32 KIQ26:KIQ32 KSM26:KSM32 LCI26:LCI32 LME26:LME32 LWA26:LWA32 MFW26:MFW32 MPS26:MPS32 MZO26:MZO32 NJK26:NJK32 NTG26:NTG32 ODC26:ODC32 OMY26:OMY32 OWU26:OWU32 PGQ26:PGQ32 PQM26:PQM32 QAI26:QAI32 QKE26:QKE32 QUA26:QUA32 RDW26:RDW32 RNS26:RNS32 RXO26:RXO32 SHK26:SHK32 SRG26:SRG32 TBC26:TBC32 TKY26:TKY32 TUU26:TUU32 UEQ26:UEQ32 UOM26:UOM32 UYI26:UYI32 VIE26:VIE32 VSA26:VSA32 WBW26:WBW32 WLS26:WLS32 WVO26:WVO32" xr:uid="{2A4A96CC-1B37-3547-9ECC-3850D46990EA}">
+      <formula1>比較演算子</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVP26:WVP32 JD26:JD32 SZ26:SZ32 ACV26:ACV32 AMR26:AMR32 AWN26:AWN32 BGJ26:BGJ32 BQF26:BQF32 CAB26:CAB32 CJX26:CJX32 CTT26:CTT32 DDP26:DDP32 DNL26:DNL32 DXH26:DXH32 EHD26:EHD32 EQZ26:EQZ32 FAV26:FAV32 FKR26:FKR32 FUN26:FUN32 GEJ26:GEJ32 GOF26:GOF32 GYB26:GYB32 HHX26:HHX32 HRT26:HRT32 IBP26:IBP32 ILL26:ILL32 IVH26:IVH32 JFD26:JFD32 JOZ26:JOZ32 JYV26:JYV32 KIR26:KIR32 KSN26:KSN32 LCJ26:LCJ32 LMF26:LMF32 LWB26:LWB32 MFX26:MFX32 MPT26:MPT32 MZP26:MZP32 NJL26:NJL32 NTH26:NTH32 ODD26:ODD32 OMZ26:OMZ32 OWV26:OWV32 PGR26:PGR32 PQN26:PQN32 QAJ26:QAJ32 QKF26:QKF32 QUB26:QUB32 RDX26:RDX32 RNT26:RNT32 RXP26:RXP32 SHL26:SHL32 SRH26:SRH32 TBD26:TBD32 TKZ26:TKZ32 TUV26:TUV32 UER26:UER32 UON26:UON32 UYJ26:UYJ32 VIF26:VIF32 VSB26:VSB32 WBX26:WBX32 WLT26:WLT32 G26:G32" xr:uid="{7B1E6F0F-6BDD-734E-91FC-D41D8140B4D9}">
+      <formula1>繰り返し時演算子</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D32 JA26:JA32 SW26:SW32 ACS26:ACS32 AMO26:AMO32 AWK26:AWK32 BGG26:BGG32 BQC26:BQC32 BZY26:BZY32 CJU26:CJU32 CTQ26:CTQ32 DDM26:DDM32 DNI26:DNI32 DXE26:DXE32 EHA26:EHA32 EQW26:EQW32 FAS26:FAS32 FKO26:FKO32 FUK26:FUK32 GEG26:GEG32 GOC26:GOC32 GXY26:GXY32 HHU26:HHU32 HRQ26:HRQ32 IBM26:IBM32 ILI26:ILI32 IVE26:IVE32 JFA26:JFA32 JOW26:JOW32 JYS26:JYS32 KIO26:KIO32 KSK26:KSK32 LCG26:LCG32 LMC26:LMC32 LVY26:LVY32 MFU26:MFU32 MPQ26:MPQ32 MZM26:MZM32 NJI26:NJI32 NTE26:NTE32 ODA26:ODA32 OMW26:OMW32 OWS26:OWS32 PGO26:PGO32 PQK26:PQK32 QAG26:QAG32 QKC26:QKC32 QTY26:QTY32 RDU26:RDU32 RNQ26:RNQ32 RXM26:RXM32 SHI26:SHI32 SRE26:SRE32 TBA26:TBA32 TKW26:TKW32 TUS26:TUS32 UEO26:UEO32 UOK26:UOK32 UYG26:UYG32 VIC26:VIC32 VRY26:VRY32 WBU26:WBU32 WLQ26:WLQ32 WVM26:WVM32" xr:uid="{205DBBEB-FC64-F24B-96BC-17DC464C77BF}">
+      <formula1>条件句タイプ</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -2254,13 +2719,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -2274,7 +2741,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19">
       <c r="A1" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -2282,7 +2749,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2299,13 +2766,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2313,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="60" t="s">
         <v>14</v>
@@ -2323,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="58" t="s">
         <v>18</v>
@@ -2334,39 +2801,39 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="64" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="G6" s="62" t="s">
         <v>41</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
@@ -2377,7 +2844,7 @@
       <c r="C8" s="66"/>
       <c r="D8" s="68"/>
       <c r="E8" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2386,7 +2853,7 @@
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2395,7 +2862,7 @@
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2404,7 +2871,7 @@
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2413,7 +2880,7 @@
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2422,47 +2889,47 @@
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="E14" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="E15" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="E16" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="5:5">
